--- a/GATEWAY/S1#111#2BINFORMATICAXX/2B_Informatica/IT-2B-GSM/1.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/S1#111#2BINFORMATICAXX/2B_Informatica/IT-2B-GSM/1.0/accreditamento-checklist_V8.2.6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VM_GSM\fse-accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81236EB-4035-4AF3-AFB6-3D7BAF803965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B420D-B371-430E-9368-D5E9946C394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,18 +711,6 @@
 Dal lato client possiamo solo impostare i timeout di attesa, ma se il server risponde in tempo reale, il timeout non si attiverà.</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.653e16612c2da3939aace8e16a37c4c01a240ac9ed8bae9e11c9781fd41b0487.cd3d7e38b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.17c9212f04114aec5fc16fd480f55ca1974bc2eb64e1d85ff79860d720334c54.30f6ed28d8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>854fb15cfc9a454ddf7dc53fa5caa4cf</t>
-  </si>
-  <si>
-    <t>004f6f00ea703724705becbe94cb93d7</t>
-  </si>
-  <si>
     <t>f191b8ad415c07d60f91372747ae25ad</t>
   </si>
   <si>
@@ -732,10 +720,22 @@
     <t>2025-6-6T11:51:09+0200</t>
   </si>
   <si>
-    <t>2025-6-9T17:00:55+0200</t>
-  </si>
-  <si>
-    <t>2025-6-9T17:21:01+0200</t>
+    <t>2025-6-21T09:26:22+0200</t>
+  </si>
+  <si>
+    <t>962dda4616fbc81d5bed01c8e275f3b3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.a77e7be293cf6d5455d14bb9012b462619cb1481e4ec11d3fd06286f8372790e.58c9816b0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-6-21T09:36:15+0200</t>
+  </si>
+  <si>
+    <t>97176d2eee551ea1f682f3c1b1e329b4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.0c160c7c3c6acff962a3c71eed3408d9b73859bff3243d4c35224e89c89dfa20.6cc9b6b49d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2764,10 +2764,10 @@
   <dimension ref="A1:W592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3135,10 +3135,10 @@
         <v>45814</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I11" s="39" t="s">
         <v>146</v>
@@ -3196,7 +3196,7 @@
         <v>45814</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="39"/>
@@ -3871,16 +3871,16 @@
         <v>118</v>
       </c>
       <c r="F28" s="34">
-        <v>45817</v>
+        <v>45829</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>49</v>
@@ -3918,16 +3918,16 @@
         <v>119</v>
       </c>
       <c r="F29" s="34">
-        <v>45817</v>
+        <v>45829</v>
       </c>
       <c r="G29" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>152</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>49</v>
@@ -10372,6 +10372,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -10381,15 +10390,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10651,6 +10651,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10663,14 +10671,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
